--- a/Data_Extract_From_World_Development_Indicators.xlsx
+++ b/Data_Extract_From_World_Development_Indicators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umair/Desktop/untitled folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E043BC36-E545-EB4F-B7EE-72486469AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C898B16-489A-9D4F-83BB-D1B250325CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -3062,7 +3062,7 @@
   <dimension ref="A1:N8288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="P170" sqref="P170"/>
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
